--- a/grupos/2ARHV - Estadisticos 20242.xlsx
+++ b/grupos/2ARHV - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="104">
   <si>
     <t>Materia</t>
   </si>
@@ -230,6 +230,9 @@
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
     <t>SOTO</t>
   </si>
   <si>
@@ -245,27 +248,27 @@
     <t>MAZA</t>
   </si>
   <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
     <t>REYES</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
+    <t>JUAREZ</t>
   </si>
   <si>
     <t>PELLICO</t>
   </si>
   <si>
-    <t>PORTUGAL</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>PICHARDO</t>
-  </si>
-  <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>ZOPILLAXTLE</t>
   </si>
   <si>
@@ -281,24 +284,24 @@
     <t>ENCARNACION</t>
   </si>
   <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
     <t>TLAXCALTECA</t>
   </si>
   <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
     <t>LIBRADO</t>
   </si>
   <si>
-    <t>TEPOLE</t>
-  </si>
-  <si>
     <t>AMISADAY</t>
   </si>
   <si>
+    <t>AYLIN ABIGAIL</t>
+  </si>
+  <si>
     <t>LUZ ARIANA</t>
   </si>
   <si>
@@ -314,22 +317,19 @@
     <t>KEVIN JESUS</t>
   </si>
   <si>
+    <t>BETZY AYELEN</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
     <t>GAEL ARMANDO</t>
   </si>
   <si>
-    <t>BETZY AYELEN</t>
+    <t>YURANI</t>
   </si>
   <si>
     <t>BENJAMIN</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>YURANI</t>
-  </si>
-  <si>
-    <t>JIMENA</t>
   </si>
 </sst>
 </file>
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -1083,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -1184,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>8</v>
@@ -1285,7 +1285,7 @@
         <v>7</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <v>9</v>
@@ -1333,7 +1333,7 @@
         <v>6</v>
       </c>
       <c r="AA8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB8">
         <v>9</v>
@@ -1386,7 +1386,7 @@
         <v>8</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -1434,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="AA9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB9">
         <v>10</v>
@@ -1481,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>7</v>
@@ -1576,7 +1576,7 @@
         <v>6</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <v>8</v>
@@ -1624,7 +1624,7 @@
         <v>7</v>
       </c>
       <c r="AA11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB11">
         <v>7</v>
@@ -1677,7 +1677,7 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>7</v>
@@ -1778,7 +1778,7 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>7</v>
@@ -1826,7 +1826,7 @@
         <v>7</v>
       </c>
       <c r="AA13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB13">
         <v>7</v>
@@ -1879,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -1980,7 +1980,7 @@
         <v>6</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>7</v>
@@ -2081,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L16">
         <v>9</v>
@@ -2182,7 +2182,7 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>9</v>
@@ -2283,7 +2283,7 @@
         <v>8</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>10</v>
@@ -2331,7 +2331,7 @@
         <v>8</v>
       </c>
       <c r="AA18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB18">
         <v>10</v>
@@ -2384,7 +2384,7 @@
         <v>8</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -2432,7 +2432,7 @@
         <v>8</v>
       </c>
       <c r="AA19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB19">
         <v>10</v>
@@ -2485,7 +2485,7 @@
         <v>8</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <v>9</v>
@@ -2586,7 +2586,7 @@
         <v>9</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="AA21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB21">
         <v>10</v>
@@ -2687,7 +2687,7 @@
         <v>6</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <v>6</v>
@@ -2735,7 +2735,7 @@
         <v>5</v>
       </c>
       <c r="AA22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB22">
         <v>5</v>
@@ -2788,7 +2788,7 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L23">
         <v>7</v>
@@ -2836,7 +2836,7 @@
         <v>5</v>
       </c>
       <c r="AA23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB23">
         <v>7</v>
@@ -2889,7 +2889,7 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L24">
         <v>9</v>
@@ -2937,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="AA24">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB24">
         <v>9</v>
@@ -2990,7 +2990,7 @@
         <v>6</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <v>9</v>
@@ -3091,7 +3091,7 @@
         <v>6</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L26">
         <v>8</v>
@@ -3139,7 +3139,7 @@
         <v>5</v>
       </c>
       <c r="AA26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB26">
         <v>8</v>
@@ -3192,7 +3192,7 @@
         <v>7</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L27">
         <v>9</v>
@@ -3240,7 +3240,7 @@
         <v>7</v>
       </c>
       <c r="AA27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB27">
         <v>9</v>
@@ -3293,7 +3293,7 @@
         <v>7</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L28">
         <v>10</v>
@@ -3341,7 +3341,7 @@
         <v>6</v>
       </c>
       <c r="AA28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB28">
         <v>10</v>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L29">
         <v>8</v>
@@ -3442,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="AA29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB29">
         <v>8</v>
@@ -3495,7 +3495,7 @@
         <v>6</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L30">
         <v>6</v>
@@ -3596,7 +3596,7 @@
         <v>6</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L31">
         <v>10</v>
@@ -3697,7 +3697,7 @@
         <v>6</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L32">
         <v>9</v>
@@ -3798,7 +3798,7 @@
         <v>6</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L33">
         <v>9</v>
@@ -3846,7 +3846,7 @@
         <v>7</v>
       </c>
       <c r="AA33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB33">
         <v>9</v>
@@ -4113,7 +4113,7 @@
         <v>85</v>
       </c>
       <c r="K5">
-        <v>85.7</v>
+        <v>93</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -4137,7 +4137,7 @@
         <v>85</v>
       </c>
       <c r="S5">
-        <v>85.7</v>
+        <v>93</v>
       </c>
       <c r="T5">
         <v>100</v>
@@ -4190,7 +4190,7 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="L6">
         <v>100</v>
@@ -4214,7 +4214,7 @@
         <v>100</v>
       </c>
       <c r="S6">
-        <v>90.5</v>
+        <v>95.3</v>
       </c>
       <c r="T6">
         <v>100</v>
@@ -4267,7 +4267,7 @@
         <v>100</v>
       </c>
       <c r="K7">
-        <v>85.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="L7">
         <v>100</v>
@@ -4291,7 +4291,7 @@
         <v>100</v>
       </c>
       <c r="S7">
-        <v>85.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="T7">
         <v>100</v>
@@ -4344,7 +4344,7 @@
         <v>85</v>
       </c>
       <c r="K8">
-        <v>85.7</v>
+        <v>93</v>
       </c>
       <c r="L8">
         <v>100</v>
@@ -4368,7 +4368,7 @@
         <v>85</v>
       </c>
       <c r="S8">
-        <v>85.7</v>
+        <v>93</v>
       </c>
       <c r="T8">
         <v>100</v>
@@ -4492,7 +4492,7 @@
         <v>84.2</v>
       </c>
       <c r="K10">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -4513,7 +4513,7 @@
         <v>83.3</v>
       </c>
       <c r="S10">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="T10">
         <v>100</v>
@@ -4566,7 +4566,7 @@
         <v>100</v>
       </c>
       <c r="K11">
-        <v>85.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="L11">
         <v>100</v>
@@ -4590,7 +4590,7 @@
         <v>100</v>
       </c>
       <c r="S11">
-        <v>85.7</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="T11">
         <v>100</v>
@@ -4643,7 +4643,7 @@
         <v>85</v>
       </c>
       <c r="K12">
-        <v>81</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="L12">
         <v>100</v>
@@ -4667,7 +4667,7 @@
         <v>85</v>
       </c>
       <c r="S12">
-        <v>81</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="T12">
         <v>100</v>
@@ -4720,7 +4720,7 @@
         <v>100</v>
       </c>
       <c r="K13">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="L13">
         <v>100</v>
@@ -4744,7 +4744,7 @@
         <v>100</v>
       </c>
       <c r="S13">
-        <v>90.5</v>
+        <v>90.7</v>
       </c>
       <c r="T13">
         <v>100</v>
@@ -4797,7 +4797,7 @@
         <v>100</v>
       </c>
       <c r="K14">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -4821,7 +4821,7 @@
         <v>100</v>
       </c>
       <c r="S14">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="T14">
         <v>100</v>
@@ -4874,7 +4874,7 @@
         <v>85</v>
       </c>
       <c r="K15">
-        <v>71.40000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="L15">
         <v>100</v>
@@ -4898,7 +4898,7 @@
         <v>85</v>
       </c>
       <c r="S15">
-        <v>71.40000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="T15">
         <v>100</v>
@@ -4951,7 +4951,7 @@
         <v>100</v>
       </c>
       <c r="K16">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="L16">
         <v>100</v>
@@ -4975,7 +4975,7 @@
         <v>100</v>
       </c>
       <c r="S16">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="T16">
         <v>100</v>
@@ -5028,7 +5028,7 @@
         <v>100</v>
       </c>
       <c r="K17">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="L17">
         <v>100</v>
@@ -5052,7 +5052,7 @@
         <v>100</v>
       </c>
       <c r="S17">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="T17">
         <v>100</v>
@@ -5105,7 +5105,7 @@
         <v>100</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="L18">
         <v>100</v>
@@ -5129,7 +5129,7 @@
         <v>100</v>
       </c>
       <c r="S18">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="T18">
         <v>100</v>
@@ -5259,7 +5259,7 @@
         <v>100</v>
       </c>
       <c r="K20">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="L20">
         <v>100</v>
@@ -5283,7 +5283,7 @@
         <v>100</v>
       </c>
       <c r="S20">
-        <v>95.2</v>
+        <v>97.7</v>
       </c>
       <c r="T20">
         <v>100</v>
@@ -5413,7 +5413,7 @@
         <v>90</v>
       </c>
       <c r="K22">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="L22">
         <v>100</v>
@@ -5437,7 +5437,7 @@
         <v>90</v>
       </c>
       <c r="S22">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="T22">
         <v>100</v>
@@ -5490,7 +5490,7 @@
         <v>90</v>
       </c>
       <c r="K23">
-        <v>85.7</v>
+        <v>93</v>
       </c>
       <c r="L23">
         <v>100</v>
@@ -5514,7 +5514,7 @@
         <v>90</v>
       </c>
       <c r="S23">
-        <v>85.7</v>
+        <v>93</v>
       </c>
       <c r="T23">
         <v>100</v>
@@ -5567,7 +5567,7 @@
         <v>90</v>
       </c>
       <c r="K24">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="L24">
         <v>100</v>
@@ -5591,7 +5591,7 @@
         <v>90</v>
       </c>
       <c r="S24">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="T24">
         <v>100</v>
@@ -5644,7 +5644,7 @@
         <v>100</v>
       </c>
       <c r="K25">
-        <v>85.7</v>
+        <v>83.7</v>
       </c>
       <c r="L25">
         <v>100</v>
@@ -5668,7 +5668,7 @@
         <v>100</v>
       </c>
       <c r="S25">
-        <v>85.7</v>
+        <v>83.7</v>
       </c>
       <c r="T25">
         <v>100</v>
@@ -6029,7 +6029,7 @@
         <v>90</v>
       </c>
       <c r="K30">
-        <v>85.7</v>
+        <v>90.7</v>
       </c>
       <c r="L30">
         <v>100</v>
@@ -6053,7 +6053,7 @@
         <v>90</v>
       </c>
       <c r="S30">
-        <v>85.7</v>
+        <v>90.7</v>
       </c>
       <c r="T30">
         <v>100</v>
@@ -6106,7 +6106,7 @@
         <v>100</v>
       </c>
       <c r="K31">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="L31">
         <v>100</v>
@@ -6130,7 +6130,7 @@
         <v>100</v>
       </c>
       <c r="S31">
-        <v>90.5</v>
+        <v>93</v>
       </c>
       <c r="T31">
         <v>100</v>
@@ -6183,7 +6183,7 @@
         <v>90</v>
       </c>
       <c r="K32">
-        <v>81</v>
+        <v>83.7</v>
       </c>
       <c r="L32">
         <v>100</v>
@@ -6207,7 +6207,7 @@
         <v>90</v>
       </c>
       <c r="S32">
-        <v>81</v>
+        <v>83.7</v>
       </c>
       <c r="T32">
         <v>100</v>
@@ -6260,7 +6260,7 @@
         <v>100</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L33">
         <v>100</v>
@@ -6284,7 +6284,7 @@
         <v>100</v>
       </c>
       <c r="S33">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="T33">
         <v>100</v>
@@ -6371,19 +6371,19 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
-        <v>53.3</v>
+        <v>66.7</v>
       </c>
       <c r="G2" s="2">
-        <v>46.7</v>
+        <v>33.3</v>
       </c>
       <c r="H2">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -6680,7 +6680,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6807,7 +6807,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920201</v>
+        <v>24330051920187</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24330051920201</v>
+        <v>24330051920187</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -6842,10 +6842,10 @@
         <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>24330051920201</v>
+        <v>24330051920187</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -6865,10 +6865,10 @@
         <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>24330051920201</v>
+        <v>24330051920187</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -6888,10 +6888,10 @@
         <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6899,7 +6899,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920400</v>
+        <v>24330051920201</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>24330051920400</v>
+        <v>24330051920201</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>24330051920400</v>
+        <v>24330051920201</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -6957,10 +6957,10 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -6968,22 +6968,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>23330051920351</v>
+        <v>24330051920201</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>23330051920351</v>
+        <v>24330051920400</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -7003,10 +7003,10 @@
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>23330051920351</v>
+        <v>24330051920400</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -7026,10 +7026,10 @@
         <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -7037,22 +7037,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>24330051920213</v>
+        <v>24330051920400</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -7060,7 +7060,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>24330051920213</v>
+        <v>23330051920351</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>24330051920213</v>
+        <v>23330051920351</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -7095,10 +7095,10 @@
         <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -7106,22 +7106,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>23330051920298</v>
+        <v>23330051920351</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>23330051920298</v>
+        <v>24330051920213</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -7141,10 +7141,10 @@
         <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>23330051920298</v>
+        <v>24330051920213</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -7164,10 +7164,10 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21">
         <v>5</v>
@@ -7175,22 +7175,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>24330051920277</v>
+        <v>24330051920213</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>24330051920277</v>
+        <v>23330051920298</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>24330051920277</v>
+        <v>23330051920298</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -7244,22 +7244,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>24330051920194</v>
+        <v>23330051920298</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -7279,10 +7279,10 @@
         <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -7302,10 +7302,10 @@
         <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -7313,22 +7313,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>24330051920188</v>
+        <v>24330051920194</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -7336,13 +7336,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>24330051920188</v>
+        <v>24330051920206</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
         <v>100</v>
@@ -7362,19 +7362,19 @@
         <v>24330051920206</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
         <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -7382,22 +7382,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>24330051920206</v>
+        <v>24330051920277</v>
       </c>
       <c r="B31" t="s">
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -7405,22 +7405,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>24330051920181</v>
+        <v>24330051920277</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
         <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -7428,16 +7428,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>24330051920316</v>
+        <v>24330051920181</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
         <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -7446,6 +7446,29 @@
         <v>57</v>
       </c>
       <c r="G33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>24330051920188</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34">
         <v>5</v>
       </c>
     </row>

--- a/grupos/2ARHV - Estadisticos 20242.xlsx
+++ b/grupos/2ARHV - Estadisticos 20242.xlsx
@@ -212,7 +212,7 @@
     <t>Barrientos Ortiz Yuliana Isabel</t>
   </si>
   <si>
-    <t>Ameca Garcia Ivan</t>
+    <t>Zarate Amezcua Eladio Jorge</t>
   </si>
   <si>
     <t>NC</t>
